--- a/Neapol_miejsca_odnosniki.xlsx
+++ b/Neapol_miejsca_odnosniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8CAD33-321A-4A1D-8831-F1741E6C8332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FB4960-6A66-448E-8CE1-7BEF5A4D3773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="178">
   <si>
     <t>Miejsce</t>
   </si>
@@ -109,31 +109,76 @@
     <t>San Felice Palace</t>
   </si>
   <si>
+    <t>Castel Sant'Elmo</t>
+  </si>
+  <si>
+    <t>Capodimonte Park</t>
+  </si>
+  <si>
+    <t>Katedra Najświętszej Marii Panny</t>
+  </si>
+  <si>
+    <t>Santa Chiara</t>
+  </si>
+  <si>
+    <t>Palazzo Reale</t>
+  </si>
+  <si>
+    <t>Fontana del Gigante</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=M3LHzguA1rY&amp;t=9s', 'https://www.youtube.com/watch?v=7rqf565LEHY']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=QRGQGQYRdx4', 'https://www.youtube.com/watch?v=z81jBMbD6jQ', 'https://www.youtube.com/watch?v=7rqf565LEHY', 'https://www.youtube.com/watch?v=8s_WdcLoKE0']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=7rqf565LEHY', 'https://www.youtube.com/watch?v=M3LHzguA1rY&amp;t=9s', 'https://www.youtube.com/watch?v=rFyi_Znj49k', 'https://www.youtube.com/watch?v=HnmmQUMSuHI', 'https://www.youtube.com/watch?v=B_XihqlChpU']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=z81jBMbD6jQ']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=HnmmQUMSuHI', 'https://www.youtube.com/watch?v=ItITyu1fY1M', 'https://www.youtube.com/watch?v=wWHTPibS3iU']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=ohHoT6CMkuM']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=o2VMkqWz7IU', 'https://www.youtube.com/watch?v=QRGQGQYRdx4']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=mRUxcZ_K1eU']</t>
+  </si>
+  <si>
     <t>['https://www.youtube.com/watch?v=QRGQGQYRdx4']</t>
   </si>
   <si>
-    <t>['https://www.youtube.com/watch?v=QRGQGQYRdx4', 'https://www.youtube.com/watch?v=z81jBMbD6jQ']</t>
+    <t>['https://www.youtube.com/watch?v=N0ZfO6XwNAc']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=o2VMkqWz7IU']</t>
   </si>
   <si>
     <t>['https://www.youtube.com/watch?v=rFyi_Znj49k']</t>
   </si>
   <si>
-    <t>['https://www.youtube.com/watch?v=z81jBMbD6jQ']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=ohHoT6CMkuM']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=o2VMkqWz7IU', 'https://www.youtube.com/watch?v=QRGQGQYRdx4']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=mRUxcZ_K1eU']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=N0ZfO6XwNAc']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=o2VMkqWz7IU']</t>
+    <t>['https://www.youtube.com/watch?v=9urUfaOpaUg&amp;t=4s', 'https://www.youtube.com/watch?v=7rqf565LEHY', 'https://www.youtube.com/watch?v=M3LHzguA1rY&amp;t=9s', 'https://www.youtube.com/watch?v=HnmmQUMSuHI', 'https://www.youtube.com/watch?v=B_XihqlChpU']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=ItITyu1fY1M', 'https://www.youtube.com/watch?v=7rqf565LEHY', 'https://www.youtube.com/watch?v=wWHTPibS3iU']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=HnmmQUMSuHI', 'https://www.youtube.com/watch?v=8s_WdcLoKE0', 'https://www.youtube.com/watch?v=M3LHzguA1rY&amp;t=9s']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=HnmmQUMSuHI', 'https://www.youtube.com/watch?v=QRGQGQYRdx4']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=7rqf565LEHY', 'https://www.youtube.com/watch?v=HnmmQUMSuHI', 'https://www.youtube.com/watch?v=B_XihqlChpU', 'https://www.youtube.com/watch?v=ItITyu1fY1M', 'https://www.youtube.com/watch?v=wWHTPibS3iU']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=B_XihqlChpU', 'https://www.youtube.com/watch?v=M3LHzguA1rY&amp;t=9s']</t>
   </si>
   <si>
     <t>Piazza del Plebiscito</t>
@@ -178,6 +223,21 @@
     <t>Basilica Reale Pontificia San Francesco da Paola</t>
   </si>
   <si>
+    <t>Zamek Sant'Elmo</t>
+  </si>
+  <si>
+    <t>Museo e Real Bosco di Capodimonte</t>
+  </si>
+  <si>
+    <t>Duomo di Napoli</t>
+  </si>
+  <si>
+    <t>Complesso Monumentale di Santa Chiara</t>
+  </si>
+  <si>
+    <t>Pałac Królewski w Neapolu</t>
+  </si>
+  <si>
     <t>80132 Naples, Metropolitan City of Naples, Włochy</t>
   </si>
   <si>
@@ -226,6 +286,24 @@
     <t>Via Sanità, 2 e 6, 80137 Napoli NA, Włochy</t>
   </si>
   <si>
+    <t>Via Tito Angelini, 20/A, 80129 Napoli NA, Włochy</t>
+  </si>
+  <si>
+    <t>Via Miano, 2, 80131 Napoli NA, Włochy</t>
+  </si>
+  <si>
+    <t>Via Duomo, 147, 80138 Napoli NA, Włochy</t>
+  </si>
+  <si>
+    <t>Via Santa Chiara, 49/c, 80134 Napoli NA, Włochy</t>
+  </si>
+  <si>
+    <t>Piazza del Plebiscito, 1, 80132 Napoli NA, Włochy</t>
+  </si>
+  <si>
+    <t>Via Partenope, 80132 Napoli NA, Włochy</t>
+  </si>
+  <si>
     <t>Plac</t>
   </si>
   <si>
@@ -260,6 +338,21 @@
   </si>
   <si>
     <t>Bazylika</t>
+  </si>
+  <si>
+    <t>Muzeum sztuki</t>
+  </si>
+  <si>
+    <t>Katedra katolicka</t>
+  </si>
+  <si>
+    <t>Klasztor</t>
+  </si>
+  <si>
+    <t>Muzeum</t>
+  </si>
+  <si>
+    <t>Pomnik</t>
   </si>
   <si>
     <t>Wyłączony z ruchu plac z pomnikami konnymi, przy którym mieści się neoklasycystyczny Pałac Królewski.Piazza del Plebiscito is one of the largest and most famous public squares in Naples, Italy. Located in the heart of the city, it is named after the plebiscite taken on October 2, 1860, that brought Naples into the unified Kingdom of Italy under the House of Savoy.
@@ -290,14 +383,6 @@
 Overall, Gino e Toto Sorbillo is celebrated not only for its culinary offerings but also for its contribution to the cultural heritage of Naples and the promotion of Neapolitan pizza as a global culinary tradition.</t>
   </si>
   <si>
-    <t>Zwiedzanie podziemnych tuneli, które pełniły m.in. funkcję rzymskich akweduktów i drugowojennych schronów przeciwlotniczych.Underground Naples, or Napoli Sotterranea in Italian, is a remarkable historical and archaeological site located in the heart of Naples, Italy. The coordinates you provided, 40.8513075, 14.2566881, pinpoint a location in the historic center of Naples, close to many of the city's significant attractions.
-Underground Naples offers a unique glimpse into the layers of history stacked beneath the bustling modern city. Originally, the Greeks, who founded Naples, dug tunnels and chambers in the soft tuff stone below the city to construct their buildings above. Later, the Romans expanded these underground spaces, using them for various purposes—including aqueducts to supply water to the city.
-During World War II, these underground tunnels and chambers served a crucial role as air raid shelters, providing protection for the local population during bombings. Post-war, some areas were used for illegal activities, but many sections were neglected and forgotten.
-Today, the Underground Naples is open to the public as a museum and tourist attraction. Visitors can explore a fascinating network of tunnels, cisterns, and cavities that reveal centuries of Neapolitan history. The guided tours typically showcase ancient artifacts, descriptions of the geological formations, and stories about the different uses of the underground spaces through time.
-Attractions within the underground tours often include a visit to the ancient Greek-Roman aqueduct, relics from the Roman Empire, and an exploration of the air raid shelters from WWII. The tours can be quite atmospheric, featuring dimly lit passages and narrow corridors that bring the history vividly to life.
-Overall, Underground Naples provides a compelling and evocative experience, offering insights not only into the history of Naples but also into the resilience and ingenuity of its inhabitants through the ages. It is a testament to how deeply the past is ingrained beneath the streets of this vibrant city.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> The mural of Diego Armando Maradona in Quartieri Spagnoli, Naples, is a vibrant tribute to one of football's greatest legends. Diego Maradona, who passed away in 2020, is especially revered in Naples, where he played for S.S.C. Napoli from 1984 to 1991. During his time at Napoli, he significantly helped the club win their first ever Serie A Italian Championships in 1986-87 and 1989-90, among other trophies.
 The mural is located in the Quartieri Spagnoli (Spanish Quarters), a densely populated and historically rich segment of Naples known for its narrow streets, lively atmosphere, and vibrant street art. This particular area embodies a spirit of resilience and community, much like Maradona himself, who is idolized not just as a footballer but also as a symbol of hope and resistance against economic disparities.
 The artwork captures Maradona in bold colors, reflecting his dynamic nature both on and off the field. It serves as a focal point of admiration and memory for locals and visitors alike, turning the spot into a pilgrimage site for football fans around the world. The mural not only commemorates Maradona's sporting achievements but also cements his legacy as a beloved figure in Naples, celebrated for his profound impact on the city's cultural and social life.
@@ -365,6 +450,27 @@
 The palace's exact location can be pinpointed using the coordinates 40.8576961 latitude and 14.2515077 longitude, situating it within the urban fabric of Naples. This location puts it in close proximity to other historical and cultural sites, making it a significant part of the city's rich architectural heritage.</t>
   </si>
   <si>
+    <t>Zbudowana na planie gwiazdy XIV-wieczna twierdza na wzgórzu z panoramicznymi widokami. Dawniej mieściło się tu więzienie.</t>
+  </si>
+  <si>
+    <t>Położony naprzeciwko pałacu królewskiego rozległy park publiczny z leśnymi ścieżkami, posągami i fontannami.</t>
+  </si>
+  <si>
+    <t>Zwiedzanie podziemnych tuneli, które pełniły m.in. funkcję rzymskich akweduktów i drugowojennych schronów przeciwlotniczych.</t>
+  </si>
+  <si>
+    <t>Imponująca katedra z neogotycką fasadą i kaplicami pełnymi dzieł sztuki, a także mozaikami z IV wieku i relikwiami.</t>
+  </si>
+  <si>
+    <t>Kompleks religijny z XIV wieku z monumentalną bazyliką, zdobionymi majoliką krużgankami oraz muzeum.</t>
+  </si>
+  <si>
+    <t>XVII-wieczny pałac z klasycznymi meblami, kinem i wystawną salą balową odrestaurowaną po wojnie.</t>
+  </si>
+  <si>
+    <t>Monumentalna fontanna z białego kamienia zaprojektowana w XVII wieku przez Pietro Berniniego.</t>
+  </si>
+  <si>
     <t>Piazza del Plebiscito is one of the largest and most famous public squares in Naples, Italy. Located in the heart of the city, it is named after the plebiscite taken on October 2, 1860, that brought Naples into the unified Kingdom of Italy under the House of Savoy.
 The square is notable for its size and grandeur, measuring roughly 25,000 square meters. It is bounded on the east by the Royal Palace of Naples (Palazzo Reale di Napoli) and on the west by the church of San Francesco di Paola, which resembles the Pantheon in Rome. The church, with its large dome and colonnaded façade, dominates the vista at one end of the square.
 The layout of Piazza del Plebiscito is elliptical, and historically, it has been used for various public events, including concerts and political rallies. The space in front of the Royal Palace is often used for ceremonial occasions.
@@ -393,14 +499,6 @@
 Overall, Gino e Toto Sorbillo is celebrated not only for its culinary offerings but also for its contribution to the cultural heritage of Naples and the promotion of Neapolitan pizza as a global culinary tradition.</t>
   </si>
   <si>
-    <t>Underground Naples, or Napoli Sotterranea in Italian, is a remarkable historical and archaeological site located in the heart of Naples, Italy. The coordinates you provided, 40.8513075, 14.2566881, pinpoint a location in the historic center of Naples, close to many of the city's significant attractions.
-Underground Naples offers a unique glimpse into the layers of history stacked beneath the bustling modern city. Originally, the Greeks, who founded Naples, dug tunnels and chambers in the soft tuff stone below the city to construct their buildings above. Later, the Romans expanded these underground spaces, using them for various purposes—including aqueducts to supply water to the city.
-During World War II, these underground tunnels and chambers served a crucial role as air raid shelters, providing protection for the local population during bombings. Post-war, some areas were used for illegal activities, but many sections were neglected and forgotten.
-Today, the Underground Naples is open to the public as a museum and tourist attraction. Visitors can explore a fascinating network of tunnels, cisterns, and cavities that reveal centuries of Neapolitan history. The guided tours typically showcase ancient artifacts, descriptions of the geological formations, and stories about the different uses of the underground spaces through time.
-Attractions within the underground tours often include a visit to the ancient Greek-Roman aqueduct, relics from the Roman Empire, and an exploration of the air raid shelters from WWII. The tours can be quite atmospheric, featuring dimly lit passages and narrow corridors that bring the history vividly to life.
-Overall, Underground Naples provides a compelling and evocative experience, offering insights not only into the history of Naples but also into the resilience and ingenuity of its inhabitants through the ages. It is a testament to how deeply the past is ingrained beneath the streets of this vibrant city.</t>
-  </si>
-  <si>
     <t>The mural of Diego Armando Maradona in Quartieri Spagnoli, Naples, is a vibrant tribute to one of football's greatest legends. Diego Maradona, who passed away in 2020, is especially revered in Naples, where he played for S.S.C. Napoli from 1984 to 1991. During his time at Napoli, he significantly helped the club win their first ever Serie A Italian Championships in 1986-87 and 1989-90, among other trophies.
 The mural is located in the Quartieri Spagnoli (Spanish Quarters), a densely populated and historically rich segment of Naples known for its narrow streets, lively atmosphere, and vibrant street art. This particular area embodies a spirit of resilience and community, much like Maradona himself, who is idolized not just as a footballer but also as a symbol of hope and resistance against economic disparities.
 The artwork captures Maradona in bold colors, reflecting his dynamic nature both on and off the field. It serves as a focal point of admiration and memory for locals and visitors alike, turning the spot into a pilgrimage site for football fans around the world. The mural not only commemorates Maradona's sporting achievements but also cements his legacy as a beloved figure in Naples, celebrated for his profound impact on the city's cultural and social life.
@@ -468,52 +566,135 @@
 The palace's exact location can be pinpointed using the coordinates 40.8576961 latitude and 14.2515077 longitude, situating it within the urban fabric of Naples. This location puts it in close proximity to other historical and cultural sites, making it a significant part of the city's rich architectural heritage.</t>
   </si>
   <si>
-    <t>L'Antica Pizzeria da Michele, zlokalizowana w samym sercu Neapolu, kultywuje dziedzictwo i tradycję przygotowywania pizzy neapolitańskiej od 1870 roku. Ograniczone menu, składające się głównie z pizzy Margherita i Marinara, podkreśla jakość używanych składników oraz mistrzostwo w pieczeniu w piecu opalanym drewnem. To miejsce, które zasłynęło na całym świecie, także dzięki literaturze i filmowi, oferuje unikatową atmosferę autentyczności w każdym kęsie.</t>
-  </si>
-  <si>
-    <t>Castel dell'Ovo, zlokalizowany na neapolitańskim przylądku Megaride, to miejsce o bogatej przeszłości, sięgającej czasów greckich kolonizatorów w VI wieku p.n.e. Twierdza ta, według legendy, zostawiła po sobie mistyczne dziedzictwo – jajo podrzucili podstawy zamku przez rzymskiego poety Wergiliusza. Zamek oferuje zachwycające widoki na Zatokę Neapolitańską oraz pełni funkcję centrum kulturalnego, hostując różnorodne wystawy i wydarzenia.</t>
-  </si>
-  <si>
-    <t>Podziemia Neapolu oferują niezwykłą podróż przez historię skrytą pod zgiełkiem współczesnego miasta. Ten labirynt tuneli i podziemnych korytarzy, pełniących przez wieki różne funkcje - od rzymskich akweduktów po schrony przeciwlotnicze z czasów II wojny światowej - teraz jest dostępny jako muzeum. Zwiedzający mogą zgłębić tajemnice starożytnych artefaktów i opowieści płynące z podziemnych zakamarków Neapolu, które żywo przybliżają bogatą przeszłość tego miejsca.</t>
-  </si>
-  <si>
-    <t>Gran Caffè Gambrinus to więcej niż kawiarnia - to miejsce pełne historii i kultury, które od blisko dwóch wieków przyciąga mieszkańców i turystów w sercu Neapolu. Rozmowy intelektualne i artystyczne spotkania nadają jej rangę salonu kulturalnego, a tradycyjne włoskie kawy i ciastka serwowane są w otoczeniu eleganckiego wnętrza pełnego dzieł sztuki. Gatmbrinus pozostaje żywym symbolem włoskiego dziedzictwa, zachęcającym do zgłębiania lokalnych tradycji prawdziwego espresso.</t>
-  </si>
-  <si>
-    <t>Piazza del Plebiscito stanowi szeroki plac w samym sercu miasta. Dominuje tu monumentalna budowla kościoła San Francesco di Paola z imponującą kopułą, flankowanego przez neoklasycystyczny Pałac Królewski. Plac, będący areną wielu ważnych wydarzeń publicznych, stanowiąc kluczowy punkt kulturowy Neapolu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gino e Toto Sorbillo, położona w sercu Neapolu, to legendarna pizzeria znana z doskonałych neapolitańskich pizz. Tradycyjne metody i składniki, takie jak pomidory San Marzano oraz Mozzarella di Bufala Campana, nadają pizzom niepowtarzalny smak. </t>
-  </si>
-  <si>
-    <t>Murale Diego Armando Maradona w Quartieri Spagnoli to żywy hołd dla legendarnego piłkarza. Umieszczony w tętniącej życiem i historycznie bogatej dzielnicy, pełnej wąskich uliczek i barwnego street artu, mural staje się miejscem pielgrzymek miłośników futbolu z całego świata. Ten kolorowy obraz artystycznie łączy kulturową tożsamość Neapolu z nieśmiertelną pamięcią o Maradonie.</t>
-  </si>
-  <si>
-    <t>Pescheria Azzurra to wyjątkowe połączenie sklepu rybnego i restauracji. Oferuje świeże owoce morza przygotowane w tradycyjny neapolitański sposób. W ciągu dnia funkcjonuje jako stragan rybny, a wieczorem zamienia się w miejsce serwujące przepyszne posiłki w prostym otoczeniu.</t>
-  </si>
-  <si>
-    <t>Galleria Umberto I, to spektakularna galeria handlowa, znana z żelazno-szklanych kopuł i mozaikowych podłóg, symbolizująca połączenie tradycji z nowoczesnością. Projekt został zrealizowany przez Emanuele Rocco w XIX wieku, jako część projektu renowacyjnego miasta. Dziś galeria stanowi nie tylko miejsce zakupów, ale również istotny punkt kulturalny i społeczny.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tandem - Via Paladino, urokliwa trattoria w sercu Neapolu, serwuje tradycyjny, neapolitański ragù przygotowywany z pasją i najlepszych składników. Położona w tętniącym życiem zakątku miasta, zaprasza gości do delektowania się smakami autentycznej włoskiej kuchni przy stolikach na świeżym powietrzu. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Założona w 1780 roku Pizzeria Brandi w Neapolu to miejsce, gdzie narodziła się pizza Margherita - jedno z najbardziej rozpoznawalnych dań na świecie. Kuchnia tego lokalu przyciąga smakoszy tradycyjną pizzą neapolitańską, przygotowywaną według rygorystycznych lokalnych zasad. </t>
-  </si>
-  <si>
-    <t>Pizzeria Da Attilio, zaprasza miłośników oryginalnej neapolitańskiej pizzy do swojego rodzinnego lokalu z piecem opalanym drewnem. Charakteryzuje się prostym wnętrzem, gdzie główną rolę grają pizze o cienkim, chrupiącym spodzie, obficie zaopatrzone w lokalne składniki. Odwiedzający mogą delektować się unikalnymi pizzami gwiazdami, które dodatkowo wzbogaca obfita porcja ricotty.</t>
-  </si>
-  <si>
-    <t>Via Toledo to dynamiczna arteria przecinająca historyczne centrum Neapolu. Od czasów swojego powstania w XVI wieku, została wybrukowana sklepami, kawiarniami oraz zabytkowymi budynkami. Ulica ta nie tylko tętni życiem handlowym, ale również kulturalnym, dzięki galeriom i teatrom rozmieszczonym wzdłuż jej przebiegu.</t>
-  </si>
-  <si>
-    <t>Stacja metra Toledo, otwarta w 2012 roku, to prawdziwa perła designu miejskiego transportu. Charakteryzuje się niezwykłymi instalacjami świetlnymi i artystycznymi dziełami, które odzwierciedlają związek miasta z morzem, używając głębokich odcieni niebieskiego. Nie tylko ułatwia codzienny transport, ale także stanowi ważny punkt kulturowy w sercu Neapolu.</t>
-  </si>
-  <si>
-    <t>Bazylika San Francesco da Paola, zlokalizowana na największym placu w mieście, wyróżnia się swoją monumentalną architekturą inspirowaną rzymskim Panteonem. Charakterystyczna fasada zdobiona kolumnami w stylu greckim i impresyjne wnętrze z bogato zdobionymi kaplicami i freskami sprawiają, że jest ważnym punktem na mapie kulturalnej i religijnej tego miasta. Dodatkowo, jej status bazyliki papieskiej nadaje jej szczególnego znaczenia dla wiernych i turystów odwiedzających Neapol.</t>
-  </si>
-  <si>
-    <t>San Felice Palace, zbudowany w latach 1724-1728, prezentuje perłę architektury barokowej Neapolu. Charakterystyczną cechą pałacu jest jego monumentalna klatka schodowa z podwójnymi biegami, uznawana za wszechstronny element stylu Sanfelice. Fasada budowli z falującymi konturami oraz bogato zdobionymi oknami i balkonami podkreśla dynamiczną strukturę pałacu, a jego wnętrze zachwyca barokowym detalem i ozdobnością, będąc istotnym elementem kulturowego dziedzictwa miasta.</t>
+    <t>Zamek Sant'Elmo (Castel Sant'Elmo) is a historic fortress located on a hilltop, Vomero Hill, in Naples, Italy, providing a panoramic view of the city and its surrounding areas including Vesuvius, the Gulf of Naples, and the Sorrento Peninsula. Its strategic position has been significant in the military history of Naples.
+The castle's origins date back to 1275 during the reign of Charles I of Anjou, but the structure that can be seen today mainly results from renovations and reconstructions in the 16th century under the Spanish rule. Architect Pedro Luis Escrivá, a military engineer, was responsible for transforming the original medieval fortress into a star fort, a design that was intended to resist cannon fire.
+The name "Sant'Elmo" derives from a former church, St. Erasmus (Sant'Erasmo), which was located at the site. Over the centuries, the structure has served various roles, from a military stronghold to a prison. Today, Castel Sant'Elmo serves primarily as a museum and exhibition venue. It hosts various cultural events, art exhibitions, and also contains the Museo del Novecento, dedicated to Neapolitan artists of the 20th century.
+One notable feature of the castle is its star-shaped plan, typical of Renaissance fortifications designed to enhance the defense capability of the fortress. The walls of the castle are quite imposing and are accessed through a bridge that originally replaced a former drawbridge.
+Castel Sant'Elmo offers not only a glimpse into the military and architectural history of Naples but also provides visitors with one of the best vantage points for viewing the city and its picturesque surroundings. It remains a popular tourist destination and a symbol of the historical heritage of Naples.</t>
+  </si>
+  <si>
+    <t>The Museo e Real Bosco di Capodimonte, or Museum and Royal Wood of Capodimonte, is a prominent art museum located in Naples, Italy. It is situated in the grand Palazzo di Capodimonte, which is a historic palace that initially served as a residence and hunting lodge for King Charles VII of Naples (later Charles III of Spain) when it was commissioned in 1738. The building and its picturesque setting on a hill overlooking Naples provide both a rich historical context and a scenic environment for museum visitors.
+As one of the largest museums in Italy, the Museo di Capodimonte features an extensive collection of Italian Renaissance and Baroque art, as well as works from other European schools. The museum's collection includes paintings, decorative arts, and important historical artifacts. Notable artists represented in the collection include Titian, Caravaggio, Raphael, El Greco, and many others, making it a significant repository of European art.
+The museum's collection is organized into several departments:
+1. The Farnese Collection, which includes works that were originally collected by one of the most influential families in Renaissance Italy.
+2. The Neapolitan Gallery, showcasing works from artists of the Neapolitan school across various periods.
+3. The Royal Apartments, where visitors can view period furniture and decorative arts that reflect the living conditions and tastes of the former royal inhabitants.
+Additionally, the surrounding park, known as the Real Bosco di Capodimonte, adds to the appeal of the museum. The park is an expansive green space that offers walking paths, scenic vistas, and historical structures, making it a popular spot for both cultural and recreational activities.
+The Museo e Real Bosco di Capodimonte is not only a hub for art lovers but also serves as a vital cultural landmark in Naples, reflecting the city's rich artistic heritage and historical significance.</t>
+  </si>
+  <si>
+    <t>Underground Naples, known in Italian as "Napoli Sotterranea," is a fascinating archaeological site and popular tourist attraction situated in the heart of Naples, Italy. This network of tunnels and chambers lies beneath the historic center of the city, specifically under the area of the San Lorenzo Maggiore and the Piazza San Gaetano.
+The underground complex includes a diverse array of subterranean features, such as ancient Roman aqueducts, World War II air-raid shelters, and early Christian burial sites. These tunnels were originally dug out in the Greek-Roman period as quarries for the extraction of soft tuff stone, essential for building structures on the surface. Over the centuries, they have been repurposed for various uses.
+The aqueduct system that runs through the underground Naples was expanded by the Romans and served as the city’s main water supply for approximately 23 centuries. During World War II, the tunnels provided a safe haven for Neapolitans as bomb shelters, offering protection during air raids.
+One of the most intriguing aspects of Napoli Sotterranea is the opportunity it presents to explore layers of Neapolitan history, from remnants of ancient Roman roads through to evidence of their later historical uses.
+Guided tours are typically available, providing visitors with insights into the historical and geological aspects of this hidden underground world. These tours not only provide a glimpse into the underbelly of Naples but also highlight the ingenuity of its past populations in utilizing this subterranean landscape across different epochs. 
+For an accurate visit and operational details, checking with local resources or the official Napoli Sotterranea website is recommended as operational hours and access can change.</t>
+  </si>
+  <si>
+    <t>The Duomo di Napoli, also known as the Cathedral of Naples or the Cattedrale di San Gennaro, is a prominent Roman Catholic cathedral located in the heart of Naples, Italy. This historic cathedral is dedicated to Saint Januarius (San Gennaro), the city's patron saint, and is famous for the miracle of the saint's blood, which is said to liquefy twice a year.
+**Historical Background:**
+The cathedral was commissioned by King Charles I of Anjou and was built on the site of two earlier churches. Construction began in the late 13th century, specifically around 1272, and it has undergone various modifications and restorations over the centuries.
+**Architectural Details:**
+The Duomo di Napoli exhibits a mix of architectural styles that reflect its long history, including Gothic, Renaissance, and Baroque elements. The façade of the cathedral, though largely Gothic, was rebuilt in the 19th century and features Neo-Gothic elements. The interior of the cathedral contains a nave and two aisles, divided by ancient columns, with various chapels along the sides.
+**Chapels and Art:**
+One of the most significant chapels in the cathedral is the Royal Chapel of the Treasure of San Gennaro, which houses relics and artworks dedicated to the saint, including precious items donated by various rulers and popes over the centuries. The chapel is a masterpiece of Baroque art and architecture. 
+The cathedral also contains frescoes, paintings, and sculptures by various notable artists. The rich decoration and art make it a significant cultural and artistic center in Naples.
+**The Miracle of San Gennaro:**
+One of the most renowned aspects of the Duomo is the Miracle of San Gennaro's blood. The saint was a bishop of Naples who was martyred in the 4th century. His blood, preserved in two glass vials, is brought out three times a year, including during the feast of San Gennaro. Thousands of faithful gather to witness the liquefaction of the blood, which is considered a sign of good fortune for the city.
+**Impact and Cultural Significance:**
+The cathedral is not only a place of worship but also a symbol of Neapolitan culture and faith. It plays a central role during religious festivities and is a beacon of historical and spiritual significance in Naples.
+The Duomo di Napoli continues to be an essential religious and historical landmark in Naples, attracting visitors and pilgrims from around the world who come to experience its architectural beauty and unique traditions.</t>
+  </si>
+  <si>
+    <t>The Complesso Monumentale di Santa Chiara, also known as the Monumental Complex of Santa Chiara, is located in Naples, Italy. This historic site includes a church, a monastery, and a convent, and is best known for its beautiful majolica-tiled cloister.
+The complex was originally built between 1310 and 1328 by King Robert of Anjou and his wife, Queen Sancha of Majorca, as a Franciscan convent for nuns. The architectural style of the church is mainly Gothic, although it has undergone several renovations and restorations over the centuries, particularly after being heavily damaged during World War II.
+One of the most striking features of the complex is the Cloister of the Clarisses (Chiostro delle Clarisse), which is adorned with vibrant majolica tiles that depict scenes from daily life and nature. These tiles, along with frescoes, were added in the 18th century, providing a vivid splash of color against the more austere Gothic architecture of the building.
+In addition to the cloister, the complex houses archaeological remains from Roman times, showcasing the layers of history in Naples. The site also includes a museum, which contains artifacts and exhibits related to the history of the complex and the religious orders associated with it.
+The church itself features a nave with side chapels, each adorned with various artworks including frescoes and sculptures. The interior reflects a mixture of Gothic and Baroque elements, indicative of the various periods of renovation it has undergone.
+Today, the Complesso Monumentale di Santa Chiara is not only a place of historical and religious significance but also a popular tourist destination, known for its peaceful atmosphere and stunning decorative art.</t>
+  </si>
+  <si>
+    <t>The Royal Palace of Naples, known as Palazzo Reale di Napoli in Italian, is a historic palace and museum located in Naples, Italy. This impressive building, situated in the heart of Naples, was originally designed by the architect Domenico Fontana and was built in the early 17th century. It served as a residence for the Spanish and later the Bourbon monarchs who ruled Naples and Sicily.
+The palace is a monumental structure showcasing the opulence and grandeur of the past. The façade is adorned with statues of the prominent rulers of Naples, adding to its historic significance and architectural beauty. Inside, the palace is equally striking, with lavishly decorated rooms and halls that house important works of art, furnishings, and historical artifacts.
+Today, the Royal Palace of Naples functions as a museum and a cultural center. It offers visitors a glimpse into the rich history and royal heritage of Naples through its extensive collections and exhibits. The palace includes the famous Teatro di San Carlo, one of the oldest and most renowned opera houses in Italy, and the Biblioteca Nazionale Vittorio Emanuele III, a significant national library with a vast collection of manuscripts and books.
+Visitors to the museum can explore various rooms and halls, each with its unique history and decorations, including the Royal Apartments, the Throne Room, and the Court Theater. The museum also hosts special exhibitions and events, making it a vital part of Naples' cultural landscape.
+In summary, the Royal Palace of Naples is not only a historic site of great architectural and artistic value but also a dynamic cultural institution that continues to contribute to the cultural life of Naples.</t>
+  </si>
+  <si>
+    <t>The Fontana del Gigante (Fountain of the Giant) in Naples, Italy, is a monumental fountain that is notable for its artistic and historical importance. This fountain is located near the sea, close to the area of Santa Lucia, which is a scenic neighborhood in Naples.
+Originally, the Fontana del Gigante was commissioned by the viceroy Pedro Álvarez de Toledo and was constructed in the 16th century to decorate the private garden of his palace, the Villa a Chiaia. It was designed by the prominent architect and sculptor Pietro Bernini, the father of the famous Gian Lorenzo Bernini.
+The fountain, true to its name, is known for its grandeur and intricate ornamental design. It features a series of statues and water games, and it was at one time adorned with figures of mythological giants, hence the name "Fountain of the Giant." The design incorporates elements typical of the Mannerism style, with an elaborate architectural backdrop, niches, and pedestals that once held statues.
+In the 17th century, the fountain was moved to its current location near the waterfront, as part of an urban renewal project carried out under the direction of architect Domenico Fontana. This move was to make it more accessible to the public and to enhance the beauty of the Naples coastline.
+Today, the Fontana del Gigante is recognized as a significant cultural landmark in Naples, drawing both tourists and art historians who are interested in the rich artistic heritage of the city. The fountain is not only a piece of aesthetic and sculptural art but also a testament to the historical urban development of Naples.</t>
+  </si>
+  <si>
+    <t>Pizzeria Brandi, położona w sercu Neapolu, jest uznawana za miejsce narodzin słynnej pizzy Margherita. Założona w 1780 roku, pizzeria przyciąga zarówno historia jak i smakiem - serwując pizzę na cienkim cieście z pieca opalanego drewnem. Nadal stosując tradycyjne metody przygotowywania pizzy neapolitańskiej, Brandi łączy w sobie długowieczną tradycję z lokalnymi składnikami, będąc istotnym punktem na kulinarnej mapie Neapolu.</t>
+  </si>
+  <si>
+    <t>Zamek Sant'Elmo, usytuowany na wzgórzu w Neapolu, oferuje nie tylko panoramiczny widok na miasto i Zatokę Neapolitańską, ale również wgląd w bogatą historię wojskową regionu. Ta gwiaździsta forteca, zaprojektowana w epoce renesansu, była niegdyś miejscem o strategicznym znaczeniu. Dziś, poza funkcją muzealną, zamek pełni rolę przestrzeni ekspozycyjnej i kulturalnej, zachęcając do odkrywania sztuki neapolitańskiej XX wieku.</t>
+  </si>
+  <si>
+    <t>Underground Naples, zlokalizowane w sercu Neapolu, oferuje unikalny wgląd w bogatą historię miasta poprzez sieć podziemnych tuneli i komór. Od czasów grecko-rzymskich, przez epokę rzymskich akweduktów, po schrony przeciwlotnicze z II wojny światowej, każdy krok w tych tunelach odkrywa kolejne warstwy historii. Zwiedzanie to prawdziwa podróż w czasie po ukrytym pod powierzchnią miasta świecie, dostępna dzięki fachowym przewodnikom.</t>
+  </si>
+  <si>
+    <t>Piazza del Plebiscito to jedno z największych i najbardziej znanych miejsc w sercu miasta, będące kwintesencją neoklasycystycznego stylu. Plac, o eliptycznym kształcie, dominuje monumentalna fasada kościoła San Francesco di Paola oraz imponujący Pałac Królewski. Stanowiąc centralny punkt kulturalny i historyczny Neapolu, przyciąga zarówno turystów, jak i miejscowych, dzięki bliskości opery Teatro di San Carlo i zabytkowej galerii handlowej Galleria Umberto I.</t>
+  </si>
+  <si>
+    <t>L'Antica Pizzeria da Michele to historyczne miejsce, które od 1870 roku podaje klasyczną neapolitańską pizzę w niezmienionej formie. Dwie główne pozycje na ich skromnym menu, Margherita i Marinara, są dowodem na to, jak proste składniki mogą tworzyć wybitne dania. Urokliwy, tradycyjny wystrój pizzerii zmienia każdy posiłek w autentyczne włoskie doświadczenie.</t>
+  </si>
+  <si>
+    <t>Castel dell'Ovo, usytuowany na dawnej wyspie Megaride, jest starym zamkiem o bogatej historii sięgającej czasów starożytnych Greków. Legenda głosi, że rzymski poeta Wergiliusz umieścił magiczne jajo w fundamentach zamku, które miało zapewniać jego trwałość. Dzisiaj ten zamek jest wyjątkowym punktem orientacyjnym, oferującym panoramę Zatoki Neapolitańskiej, oraz miejscem kulturalnych wydarzeń i wystaw.</t>
+  </si>
+  <si>
+    <t>Museo e Real Bosco di Capodimonte to znaczące muzeum sztuki, które mieści się w historycznym Palazzo di Capodimonte. Mmuzeum oferuje szeroki zakres dzieł europejskiej sztuki renesansowej i barokowej, a także obiekty z epoki, z dziełami takich mistrzów jak Tytian czy Caravaggio. Otaczający je rozległy park z leśnymi ścieżkami, posągami i fontannami jest idealnym miejscem dla odwiedzających szukających zarówno kulturalnych wrażeń, jak i odpoczynku na łonie natury.</t>
+  </si>
+  <si>
+    <t>Gino e Toto Sorbillo, położona w sercu Neapolu na Via dei Tribunali, jest jedną z najbardziej znanych pizzerii w regionie, znana z autentycznych neapolitańskich pizz. Ta rodzinnie prowadzona restauracja czerpie z receptur przekazywanych przez pokolenia, korzystając z lokalnych składników, takich jak pomidory San Marzano i mozzarella di bufala Campana. Uznawana globalnie, przyciąga turystów z całego świata.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duomo di Napoli, katedra poświęcona św. Januariuszowi, jest sercem duchowym miasta. Jej architektura łączy elementy gotyckie, renesansowe i barokowe, z neogotycką fasadą dodaną w XIX wieku. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kompleks Monumentalny Santa Chiara w Neapolu to zachwycające połączenie historii i sztuki. Zbudowany w XIV wieku, zalicza się do architektury gotyckiej z barokowymi wpływami widocznymi w dekoracjach wnętrz. Jego największymi atrakcjami są majolikowe krużganki zdobione scenami z życia codziennego i przyrody, które nadają miejscu wyjątkowy, kolorowy charakter. </t>
+  </si>
+  <si>
+    <t>Murale Diego Armando Maradona w Quartieri Spagnoli to malowniczy hołd dla legendarnej postaci futbolu. Znajdujący się w tętniącej życiem i pełnej ulicznej sztuki dzielnicy, mural prezentuje Maradonę w żywych kolorach, oddając jego dynamiczny charakter. Miejsce to stało się centrum uwielbienia i pamięci zarówno dla lokalnych mieszkańców, jak i odwiedzających, przyciągając fanów piłki nożnej z całego świata, którzy przybywają tutaj, by oddać hołd swojemu idolu.</t>
+  </si>
+  <si>
+    <t>Gran Caffè Gambrinus to kawiarnia z bogatą historią, której początki sięgają końca XIX wieku. Położona blisko głównego placu miasta, Piazza del Plebiscito, stała się miejscem spotkań artystów, intelektualistów oraz miłośników tradycyjnej włoskiej kawy i ciastek. Jej wnętrze zdobione klasycznym dekorem odzwierciedla długą tradycję i dziedzictwo kulturalne, sprawiając, że jest to więcej niż tylko kawiarnia; to skarbnica włoskich tradycji i historii kulturalnej.</t>
+  </si>
+  <si>
+    <t>Pałac Królewski łączy historię z kulturalną współczesnością. Ten XVII-wieczny budynek nie tylko fascynuje odrestaurowaną salą balową i kinem, ale także służy jako muzeum prezentujące zarówno majestatyczną architekturę, jak i bogate kolekcje artystyczne i historyczne. Znajdujące się w nim Teatro di San Carlo dodaje miejscu wyjątkowego znaczenia jako jedno z najstarszych operowych serc Włoch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pescheria Azzurra oferuje więcej niż tylko świeże owoce morza po neapolitańsku. To miejsce, które w ciągu dnia przemienia się ze sklepu rybnego w restaurację, serwując wyjątkowe dania w prostym otoczeniu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galleria Umberto I jest reprezentacyjnym przykładem architektury z przełomu XIX wieku, łączącym tradycyjne elementy z nowoczesnymi technikami konstrukcyjnymi. Charakterystyczne, przeszklone kopuły i malownicze mozaiki podłogowe dodają uroku temu miejscu, które pełni zarówno funkcje komercyjne, jak i kulturalne, będąc popularnym miejscem spotkań mieszkańców i turystów. </t>
+  </si>
+  <si>
+    <t>Tandem - Via Paladino jest prostą trattorią w sercu Neapolu, przyciągającą miłośników tradycyjnych dań. Specjalizuje się w serwowaniu ręcznie robionych makaronów z bogatym sosem ragù, który jest wolno gotowany, dając głębię smaku charakterystyczną dla lokalnej kuchni.</t>
+  </si>
+  <si>
+    <t>Pizzeria Da Attilio to kultowe miejsce dla miłośników prawdziwej neapolitańskiej pizzy. Znana z użycia tradycyjnych metod pieczenia w piecu opalanym drewnem, oferuje pizze o charakterystycznie cienkim i elastycznym cieście z lokalnych składników. Dla wielu, jej pizza Margherita to kwintesencja włoskiego smaku.</t>
+  </si>
+  <si>
+    <t>Via Toledo to miejsce pełne tętniącego życia. Ta historyczna ulica, zaprojektowana w XVI wieku, dziś zachęca do zwiedzania dzięki bogatej ofercie sklepów, kawiarni i zabytków. Znana z niezwykle urokliwej architektury stacji metra Toledo, stanowi kluczowy element miejskiej tkanki, łącząc ważne place i ulice Neapolu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacja metra Toledo to nie tylko węzeł komunikacyjny, ale prawdziwa galeria sztuki. Jej wnętrze, zainspirowane morzem i światłem, zachwyca błękitami i artystycznymi instalacjami, które zmieniają codzienną podróż w niezwykłe doświadczenie estetyczne. </t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=mRUxcZ_K1eU', 'https://www.youtube.com/watch?v=QRGQGQYRdx4', 'https://www.youtube.com/watch?v=9urUfaOpaUg&amp;t=4s']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bazylika Reale Pontificia San Francesco da Paola to zabytkowy kościół o majestatycznej kopule i okrągłym planie, inspirowany rzymskim Panteonem. Portyk z greckimi kolumnami zdobi jego fasadę, a wnętrze zdobią liczne rzeźby i obrazy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fontana del Gigante to monumentalna fontanna z białego kamienia, która od XVII wieku zdobi wybrzeże Neapolu. Zaprojektowana przez Pietro Berniniego, fontanna była pierwotnie umieszczona w prywatnym ogrodzie wicekróla, zanim została przeniesiona na publiczne nabrzeże. </t>
+  </si>
+  <si>
+    <t>San Felice Palace to doskonały przykład architektury barokowej z południa Włoch, zaprojektowany przez Ferdinanda Sanfelice na początku XVIII wieku. Charakterystycznymi elementami budowli są jej pulsujące fasady, bogato zdobione okna i balkony oraz imponujące, dwubiegowe schody, które nadają wnętrzu teatralny efekt. Palazzo Sanfelice, mimo różnych zastosowań na przestrzeni lat, nadal pozostaje ważnym punktem kulturalnym i historycznym Neapolu.</t>
   </si>
 </sst>
 </file>
@@ -881,11 +1062,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -935,13 +1114,13 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>40.8358256</v>
@@ -950,7 +1129,7 @@
         <v>14.248583099999999</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="H2">
         <v>4.7</v>
@@ -959,16 +1138,16 @@
         <v>75776</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="M2" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -976,13 +1155,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E3">
         <v>40.849756300000003</v>
@@ -991,7 +1170,7 @@
         <v>14.2633002</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="H3">
         <v>4.3</v>
@@ -1000,16 +1179,16 @@
         <v>38112</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="M3" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1017,13 +1196,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <v>40.828315699999997</v>
@@ -1032,7 +1211,7 @@
         <v>14.2476044</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="H4">
         <v>4.5999999999999996</v>
@@ -1041,552 +1220,801 @@
         <v>34457</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="M4" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="E5">
-        <v>40.8503854</v>
+        <v>40.844451499999998</v>
       </c>
       <c r="F5">
-        <v>14.255302800000001</v>
+        <v>14.238895100000001</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="H5">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I5">
-        <v>25470</v>
+        <v>28506</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="M5" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="E6">
-        <v>40.851307499999997</v>
+        <v>40.867147199999998</v>
       </c>
       <c r="F6">
-        <v>14.2566881</v>
+        <v>14.250845699999999</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="H6">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="I6">
-        <v>24231</v>
+        <v>25817</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="M6" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E7">
-        <v>40.841436799999997</v>
+        <v>40.8503854</v>
       </c>
       <c r="F7">
-        <v>14.2452469</v>
+        <v>14.255302800000001</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="H7">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I7">
-        <v>12784</v>
+        <v>25470</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="M7" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E8">
-        <v>40.836794500000003</v>
+        <v>40.851307499999997</v>
       </c>
       <c r="F8">
-        <v>14.248479</v>
+        <v>14.2566881</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="H8">
-        <v>4.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I8">
-        <v>11362</v>
+        <v>24237</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="M8" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="E9">
-        <v>40.846650799999999</v>
+        <v>40.852542900000003</v>
       </c>
       <c r="F9">
-        <v>14.2470702</v>
+        <v>14.259320499999999</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="H9">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I9">
-        <v>6890</v>
+        <v>18979</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="M9" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="E10">
-        <v>40.838547200000001</v>
+        <v>40.847072799999999</v>
       </c>
       <c r="F10">
-        <v>14.249505600000001</v>
+        <v>14.252690400000001</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="H10">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="I10">
-        <v>6056</v>
+        <v>13984</v>
       </c>
       <c r="J10" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="M10" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E11">
-        <v>40.848235699999996</v>
+        <v>40.841436799999997</v>
       </c>
       <c r="F11">
-        <v>14.256291600000001</v>
+        <v>14.2452469</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="H11">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="I11">
-        <v>5939</v>
+        <v>12784</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="M11" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E12">
-        <v>40.836711600000001</v>
+        <v>40.836794500000003</v>
       </c>
       <c r="F12">
-        <v>14.2468161</v>
+        <v>14.248479</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="H12">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I12">
-        <v>5774</v>
+        <v>11362</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="M12" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="E13">
-        <v>40.845184600000003</v>
+        <v>40.836231599999998</v>
       </c>
       <c r="F13">
-        <v>14.248227699999999</v>
+        <v>14.249402699999999</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="H13">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I13">
-        <v>4691</v>
+        <v>8957</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E14">
-        <v>40.842821200000003</v>
+        <v>40.846650799999999</v>
       </c>
       <c r="F14">
-        <v>14.248904</v>
+        <v>14.2470702</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="H14">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="I14">
-        <v>1539</v>
+        <v>6890</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E15">
-        <v>40.842494799999997</v>
+        <v>40.838547200000001</v>
       </c>
       <c r="F15">
-        <v>14.2489206</v>
+        <v>14.249505600000001</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="H15">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I15">
-        <v>1037</v>
+        <v>6056</v>
       </c>
       <c r="J15" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E16">
-        <v>40.835331799999999</v>
+        <v>40.848235699999996</v>
       </c>
       <c r="F16">
-        <v>14.247579699999999</v>
+        <v>14.256291600000001</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="H16">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I16">
-        <v>995</v>
+        <v>5939</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="M16" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17">
+        <v>40.836711600000001</v>
+      </c>
+      <c r="F17">
+        <v>14.2468161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17">
+        <v>4.2</v>
+      </c>
+      <c r="I17">
+        <v>5774</v>
+      </c>
+      <c r="J17" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18">
+        <v>40.845184600000003</v>
+      </c>
+      <c r="F18">
+        <v>14.248227699999999</v>
+      </c>
+      <c r="G18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18">
+        <v>4.5</v>
+      </c>
+      <c r="I18">
+        <v>4691</v>
+      </c>
+      <c r="J18" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>143</v>
+      </c>
+      <c r="M18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19">
+        <v>40.842821200000003</v>
+      </c>
+      <c r="F19">
+        <v>14.248904</v>
+      </c>
+      <c r="G19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I19">
+        <v>1539</v>
+      </c>
+      <c r="J19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>144</v>
+      </c>
+      <c r="M19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20">
+        <v>40.842494799999997</v>
+      </c>
+      <c r="F20">
+        <v>14.2489206</v>
+      </c>
+      <c r="G20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20">
+        <v>4.5</v>
+      </c>
+      <c r="I20">
+        <v>1037</v>
+      </c>
+      <c r="J20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>145</v>
+      </c>
+      <c r="M20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21">
+        <v>40.835331799999999</v>
+      </c>
+      <c r="F21">
+        <v>14.247579699999999</v>
+      </c>
+      <c r="G21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I21">
+        <v>995</v>
+      </c>
+      <c r="J21" t="s">
+        <v>124</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>146</v>
+      </c>
+      <c r="M21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22">
+        <v>40.829720999999999</v>
+      </c>
+      <c r="F22">
+        <v>14.2500877</v>
+      </c>
+      <c r="G22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I22">
+        <v>815</v>
+      </c>
+      <c r="J22" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>154</v>
+      </c>
+      <c r="M22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
         <v>28</v>
       </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17">
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23">
         <v>40.857696099999998</v>
       </c>
-      <c r="F17">
+      <c r="F23">
         <v>14.251507699999999</v>
       </c>
-      <c r="G17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17">
+      <c r="G23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I17">
+      <c r="I23">
         <v>734</v>
       </c>
-      <c r="J17" t="s">
-        <v>95</v>
-      </c>
-      <c r="K17">
+      <c r="J23" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23">
         <v>0</v>
       </c>
-      <c r="L17" t="s">
-        <v>111</v>
-      </c>
-      <c r="M17" t="s">
-        <v>127</v>
+      <c r="L23" t="s">
+        <v>147</v>
+      </c>
+      <c r="M23" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M23">
+    <sortCondition descending="1" ref="I2:I23"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>